--- a/file_170904/iris.xlsx
+++ b/file_170904/iris.xlsx
@@ -41,13 +41,13 @@
     <t>Species</t>
   </si>
   <si>
-    <t>I. setosa</t>
+    <t>I.setosa</t>
   </si>
   <si>
-    <t>I. versicolor</t>
+    <t>I.versicolor</t>
   </si>
   <si>
-    <t>I. virginica</t>
+    <t>I.virginica</t>
   </si>
 </sst>
 </file>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection sqref="A1:E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
